--- a/biology/Botanique/Quercus_austrina/Quercus_austrina.xlsx
+++ b/biology/Botanique/Quercus_austrina/Quercus_austrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quercus austrina, dit Quercus austrina, le chêne blanc bâtard[1] ou chêne des falaises, est une espèce de chêne endémique du sud-est des États-Unis, du Mississippi aux Carolines du Nord et du Sud, avec quelques populations isolées en Arkansas[2],[3]. C’est une espèce très rare en culture et classée en statut vulnérable sur le site de l’IUCN.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quercus austrina, dit Quercus austrina, le chêne blanc bâtard ou chêne des falaises, est une espèce de chêne endémique du sud-est des États-Unis, du Mississippi aux Carolines du Nord et du Sud, avec quelques populations isolées en Arkansas,. C’est une espèce très rare en culture et classée en statut vulnérable sur le site de l’IUCN.
 Le Quercus austrina peut atteindre une hauteur de 13,5 à 18 mètres et une largeur de 10,5 à 15 mètres. Les feuilles sont étroites, avec des lobes arrondis peu profonds. Il a tendance à pousser dans des habitats humides, comme les falaises de rivière, les fonds de rivière et les bois, et généralement sur des substrats basiques, comme des roches mafiques, des coquillages ou des sédiments calcaires.
-Les spécimens de Quercus austrina ont souvent été mal identifiés comme étant soit Q. sinuata, soit Q. nigra[3],[4].
-Quercus austrina est tolérant à l'argile, au sable, au loam, aux sols acides et bien drainés. De plus, il a besoin de beaucoup de soleil et sa tolérance à la sécheresse est élevée[5].
+Les spécimens de Quercus austrina ont souvent été mal identifiés comme étant soit Q. sinuata, soit Q. nigra,.
+Quercus austrina est tolérant à l'argile, au sable, au loam, aux sols acides et bien drainés. De plus, il a besoin de beaucoup de soleil et sa tolérance à la sécheresse est élevée.
 </t>
         </is>
       </c>
